--- a/data/pca/factorExposure/factorExposure_2013-06-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-04.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001854969516534606</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001982072980684482</v>
+      </c>
+      <c r="C2">
+        <v>-0.03241407972815261</v>
+      </c>
+      <c r="D2">
+        <v>-0.002230719952134017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001537292215978998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005836807584711392</v>
+      </c>
+      <c r="C4">
+        <v>-0.08338639758332846</v>
+      </c>
+      <c r="D4">
+        <v>-0.08029542269983068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.000535925354264691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01301425529187961</v>
+      </c>
+      <c r="C6">
+        <v>-0.1077939305737962</v>
+      </c>
+      <c r="D6">
+        <v>-0.03523175251490607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001794287143527486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004871491602529615</v>
+      </c>
+      <c r="C7">
+        <v>-0.05051457094529035</v>
+      </c>
+      <c r="D7">
+        <v>-0.0369501931007209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002202587744426537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005664656152747134</v>
+      </c>
+      <c r="C8">
+        <v>-0.03679273644718954</v>
+      </c>
+      <c r="D8">
+        <v>-0.04109459302915489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.00535119766393541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.003877319570194357</v>
+      </c>
+      <c r="C9">
+        <v>-0.06808930367127643</v>
+      </c>
+      <c r="D9">
+        <v>-0.06979635458202416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00570771797239963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005641401831300499</v>
+      </c>
+      <c r="C10">
+        <v>-0.07661118431428697</v>
+      </c>
+      <c r="D10">
+        <v>0.2095856154353991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005346387085015545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.004867499100755833</v>
+      </c>
+      <c r="C11">
+        <v>-0.07776777022351851</v>
+      </c>
+      <c r="D11">
+        <v>-0.0659408113227709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0009519731925309321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003623233029485522</v>
+      </c>
+      <c r="C12">
+        <v>-0.06259231180179793</v>
+      </c>
+      <c r="D12">
+        <v>-0.04752695856458286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003827665725683403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008515259652383493</v>
+      </c>
+      <c r="C13">
+        <v>-0.068905471069464</v>
+      </c>
+      <c r="D13">
+        <v>-0.07011691650678284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.003701353444995621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001531630340758964</v>
+      </c>
+      <c r="C14">
+        <v>-0.04559114948130228</v>
+      </c>
+      <c r="D14">
+        <v>-0.01403599032087956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003219735807097442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.00558960323853245</v>
+      </c>
+      <c r="C15">
+        <v>-0.03738951605088348</v>
+      </c>
+      <c r="D15">
+        <v>-0.0408930659558422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002925686558008133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004730476804141907</v>
+      </c>
+      <c r="C16">
+        <v>-0.06386188333792785</v>
+      </c>
+      <c r="D16">
+        <v>-0.0510049979854434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0009048269500419228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008888380755400802</v>
+      </c>
+      <c r="C20">
+        <v>-0.06409995273866635</v>
+      </c>
+      <c r="D20">
+        <v>-0.05778541323579182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004586344886649878</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.00985915236623067</v>
+      </c>
+      <c r="C21">
+        <v>-0.02345276959532182</v>
+      </c>
+      <c r="D21">
+        <v>-0.0378847908359473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01611750060438938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007098171032772588</v>
+      </c>
+      <c r="C22">
+        <v>-0.08996947892250175</v>
+      </c>
+      <c r="D22">
+        <v>-0.09971093554101178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0163705976788638</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006889013203478957</v>
+      </c>
+      <c r="C23">
+        <v>-0.09103887189474424</v>
+      </c>
+      <c r="D23">
+        <v>-0.1003299516449688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003967064005607678</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004482971091952934</v>
+      </c>
+      <c r="C24">
+        <v>-0.07203483320152673</v>
+      </c>
+      <c r="D24">
+        <v>-0.06034432043649359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005642038000658905</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002566683022798991</v>
+      </c>
+      <c r="C25">
+        <v>-0.07634792690178734</v>
+      </c>
+      <c r="D25">
+        <v>-0.06574524749406628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006207692955465423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003476922493642743</v>
+      </c>
+      <c r="C26">
+        <v>-0.04050375122777589</v>
+      </c>
+      <c r="D26">
+        <v>-0.02866166712837661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004830559831992048</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0005663781828966434</v>
+      </c>
+      <c r="C28">
+        <v>-0.1279460112314056</v>
+      </c>
+      <c r="D28">
+        <v>0.3069069942598536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001810715902256306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003178445637279603</v>
+      </c>
+      <c r="C29">
+        <v>-0.04768883536946096</v>
+      </c>
+      <c r="D29">
+        <v>-0.01653416017315416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005367389406254962</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008531267642596077</v>
+      </c>
+      <c r="C30">
+        <v>-0.1363476638817271</v>
+      </c>
+      <c r="D30">
+        <v>-0.1082235696429147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0003174606597904992</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006006787965094678</v>
+      </c>
+      <c r="C31">
+        <v>-0.04460932060310779</v>
+      </c>
+      <c r="D31">
+        <v>-0.03579764202779828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002015478549676536</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003818390531763965</v>
+      </c>
+      <c r="C32">
+        <v>-0.03970696810561799</v>
+      </c>
+      <c r="D32">
+        <v>-0.01369057338540546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002982541546832459</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007528688431239541</v>
+      </c>
+      <c r="C33">
+        <v>-0.08091405849481756</v>
+      </c>
+      <c r="D33">
+        <v>-0.07751000859309372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005341230419516049</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003537113144902855</v>
+      </c>
+      <c r="C34">
+        <v>-0.05623186126793384</v>
+      </c>
+      <c r="D34">
+        <v>-0.04591428343921827</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.004110712972422749</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004758595711183846</v>
+      </c>
+      <c r="C35">
+        <v>-0.03811323040241235</v>
+      </c>
+      <c r="D35">
+        <v>-0.01284584044291204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004626680002982444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001510864955283378</v>
+      </c>
+      <c r="C36">
+        <v>-0.02317520070225572</v>
+      </c>
+      <c r="D36">
+        <v>-0.0232304800320738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002519380520071808</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009474359633269022</v>
+      </c>
+      <c r="C38">
+        <v>-0.03382863602879103</v>
+      </c>
+      <c r="D38">
+        <v>-0.02979815773890144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01363575830094051</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001198807892146387</v>
+      </c>
+      <c r="C39">
+        <v>-0.1147240067440159</v>
+      </c>
+      <c r="D39">
+        <v>-0.0813375301092758</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007898984871418775</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002120490525115469</v>
+      </c>
+      <c r="C40">
+        <v>-0.0854398094171066</v>
+      </c>
+      <c r="D40">
+        <v>-0.02650291001659847</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>5.381146298679838e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007240369541964749</v>
+      </c>
+      <c r="C41">
+        <v>-0.0384569419434172</v>
+      </c>
+      <c r="D41">
+        <v>-0.03714450468559639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002836811724685264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003061032896906707</v>
+      </c>
+      <c r="C43">
+        <v>-0.04969080833650541</v>
+      </c>
+      <c r="D43">
+        <v>-0.02935749532709298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005176490449146005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003373919776926798</v>
+      </c>
+      <c r="C44">
+        <v>-0.1067374320126011</v>
+      </c>
+      <c r="D44">
+        <v>-0.08492320962131805</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002548022152788519</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002380137751942288</v>
+      </c>
+      <c r="C46">
+        <v>-0.03450463790707997</v>
+      </c>
+      <c r="D46">
+        <v>-0.03524900432134274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001383348811338441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002812786655263956</v>
+      </c>
+      <c r="C47">
+        <v>-0.03833066657033771</v>
+      </c>
+      <c r="D47">
+        <v>-0.02897705810280581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003794880021857499</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006439642728630274</v>
+      </c>
+      <c r="C48">
+        <v>-0.0289058956773064</v>
+      </c>
+      <c r="D48">
+        <v>-0.03164930040859713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01474862979160805</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01356135253811013</v>
+      </c>
+      <c r="C49">
+        <v>-0.1709806605975511</v>
+      </c>
+      <c r="D49">
+        <v>-0.03490357176835642</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0005539951956350955</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003507429924891538</v>
+      </c>
+      <c r="C50">
+        <v>-0.04094503817509307</v>
+      </c>
+      <c r="D50">
+        <v>-0.04018310598768093</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001093114678022214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003996569706966034</v>
+      </c>
+      <c r="C51">
+        <v>-0.01922875752362295</v>
+      </c>
+      <c r="D51">
+        <v>-0.0320701011522599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001334828537149758</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02005876936037944</v>
+      </c>
+      <c r="C53">
+        <v>-0.1648333701727331</v>
+      </c>
+      <c r="D53">
+        <v>-0.05410517772427284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0006603801229197248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008252741271498146</v>
+      </c>
+      <c r="C54">
+        <v>-0.05523771298063533</v>
+      </c>
+      <c r="D54">
+        <v>-0.04337652618873761</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004520073307476215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009234750441497568</v>
+      </c>
+      <c r="C55">
+        <v>-0.1047910204345985</v>
+      </c>
+      <c r="D55">
+        <v>-0.05368579762484064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002969075327114991</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01926933728919435</v>
+      </c>
+      <c r="C56">
+        <v>-0.1719410660299751</v>
+      </c>
+      <c r="D56">
+        <v>-0.05133864299813164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008113466523957863</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01910673656416236</v>
+      </c>
+      <c r="C58">
+        <v>-0.0998550161995946</v>
+      </c>
+      <c r="D58">
+        <v>-0.07913188342036731</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.00703937830895276</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009188387783053465</v>
+      </c>
+      <c r="C59">
+        <v>-0.1702331730983215</v>
+      </c>
+      <c r="D59">
+        <v>0.2765772891775563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006541257248716827</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02285886995871669</v>
+      </c>
+      <c r="C60">
+        <v>-0.2212720644962596</v>
+      </c>
+      <c r="D60">
+        <v>-0.02984154823670311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01582846520262201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002203038315179078</v>
+      </c>
+      <c r="C61">
+        <v>-0.09414171842222088</v>
+      </c>
+      <c r="D61">
+        <v>-0.06176793292212444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1840684081514758</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1434748901500675</v>
+      </c>
+      <c r="C62">
+        <v>-0.07487262578939566</v>
+      </c>
+      <c r="D62">
+        <v>-0.05380529046767513</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002369334775709018</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006407041210106267</v>
+      </c>
+      <c r="C63">
+        <v>-0.05906770582538563</v>
+      </c>
+      <c r="D63">
+        <v>-0.02593202691086111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.00775441876078976</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01448932702537411</v>
+      </c>
+      <c r="C64">
+        <v>-0.1018678856697132</v>
+      </c>
+      <c r="D64">
+        <v>-0.06445504029334823</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0002063999607873844</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01671029533959324</v>
+      </c>
+      <c r="C65">
+        <v>-0.113694301423618</v>
+      </c>
+      <c r="D65">
+        <v>-0.03051304359484913</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.009995508804255546</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01183983938560173</v>
+      </c>
+      <c r="C66">
+        <v>-0.1532167204813587</v>
+      </c>
+      <c r="D66">
+        <v>-0.1186654995055006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002553861779848511</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01548032495819528</v>
+      </c>
+      <c r="C67">
+        <v>-0.06300258845937745</v>
+      </c>
+      <c r="D67">
+        <v>-0.03971857961621447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007599171997703057</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001407588390735202</v>
+      </c>
+      <c r="C68">
+        <v>-0.1124148865225917</v>
+      </c>
+      <c r="D68">
+        <v>0.2621519506502789</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003501774419208239</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.00560037674036965</v>
+      </c>
+      <c r="C69">
+        <v>-0.0449442789639229</v>
+      </c>
+      <c r="D69">
+        <v>-0.04422627839349687</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001717569871270067</v>
+      </c>
+      <c r="C70">
+        <v>-0.001785566126543667</v>
+      </c>
+      <c r="D70">
+        <v>-0.002946956002992228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003104014511436557</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.00617919842945622</v>
+      </c>
+      <c r="C71">
+        <v>-0.1143488582632922</v>
+      </c>
+      <c r="D71">
+        <v>0.2824284281134624</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008738066464162321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01487206477162903</v>
+      </c>
+      <c r="C72">
+        <v>-0.1502509372154365</v>
+      </c>
+      <c r="D72">
+        <v>-0.0282907803393171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01366365624118907</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02932235869433203</v>
+      </c>
+      <c r="C73">
+        <v>-0.2828487231183294</v>
+      </c>
+      <c r="D73">
+        <v>-0.05428156798154343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004360714013632675</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001460598809340387</v>
+      </c>
+      <c r="C74">
+        <v>-0.1033345274570195</v>
+      </c>
+      <c r="D74">
+        <v>-0.04360529891548148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0070074106839624</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01043336921616797</v>
+      </c>
+      <c r="C75">
+        <v>-0.1308673299796744</v>
+      </c>
+      <c r="D75">
+        <v>-0.04173212661036722</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01174098897725037</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02105027513861079</v>
+      </c>
+      <c r="C76">
+        <v>-0.1442950559637879</v>
+      </c>
+      <c r="D76">
+        <v>-0.07505464805823277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.003352287869398692</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02376721485126772</v>
+      </c>
+      <c r="C77">
+        <v>-0.1330946030310384</v>
+      </c>
+      <c r="D77">
+        <v>-0.06835771047154054</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0008829160595585272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01381059819378295</v>
+      </c>
+      <c r="C78">
+        <v>-0.09063010039244439</v>
+      </c>
+      <c r="D78">
+        <v>-0.0667985965395808</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02765225784777754</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03657745760453439</v>
+      </c>
+      <c r="C79">
+        <v>-0.1562443167287806</v>
+      </c>
+      <c r="D79">
+        <v>-0.03598423996511557</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005358490724923027</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01053439394114044</v>
+      </c>
+      <c r="C80">
+        <v>-0.04126484244936968</v>
+      </c>
+      <c r="D80">
+        <v>-0.03499714273496743</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>3.334722185704516e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01431449021768742</v>
+      </c>
+      <c r="C81">
+        <v>-0.1195872974007833</v>
+      </c>
+      <c r="D81">
+        <v>-0.05680746489379047</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00655706682585763</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01942472827724461</v>
+      </c>
+      <c r="C82">
+        <v>-0.1417557947619496</v>
+      </c>
+      <c r="D82">
+        <v>-0.04890395320337695</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006592896224565712</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009553843295896106</v>
+      </c>
+      <c r="C83">
+        <v>-0.05562963826268705</v>
+      </c>
+      <c r="D83">
+        <v>-0.0512580319579253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01320814019234529</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01160205907020872</v>
+      </c>
+      <c r="C84">
+        <v>-0.02982777897710404</v>
+      </c>
+      <c r="D84">
+        <v>-0.0009589225297583632</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01641299644682156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02767933240469403</v>
+      </c>
+      <c r="C85">
+        <v>-0.1278270801156867</v>
+      </c>
+      <c r="D85">
+        <v>-0.05475741768758322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003524047003165319</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005369717232805323</v>
+      </c>
+      <c r="C86">
+        <v>-0.04733042231622522</v>
+      </c>
+      <c r="D86">
+        <v>-0.02674702484960556</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007533919904944338</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.009677704902006423</v>
+      </c>
+      <c r="C87">
+        <v>-0.127663175316703</v>
+      </c>
+      <c r="D87">
+        <v>-0.08191578026274776</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01421088002651783</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003080722111351635</v>
+      </c>
+      <c r="C88">
+        <v>-0.06885222094775156</v>
+      </c>
+      <c r="D88">
+        <v>-0.02028734556975764</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01471340431176163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001236145837745952</v>
+      </c>
+      <c r="C89">
+        <v>-0.1663942290493992</v>
+      </c>
+      <c r="D89">
+        <v>0.3445120039903155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002644368608182594</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007139485345322109</v>
+      </c>
+      <c r="C90">
+        <v>-0.1453683125395692</v>
+      </c>
+      <c r="D90">
+        <v>0.3173302384542939</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002144814290351661</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01008279713450932</v>
+      </c>
+      <c r="C91">
+        <v>-0.1026955988210092</v>
+      </c>
+      <c r="D91">
+        <v>-0.022559125522123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01424823837263632</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0002773722841823187</v>
+      </c>
+      <c r="C92">
+        <v>-0.1542460041240482</v>
+      </c>
+      <c r="D92">
+        <v>0.3269147367589824</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001616309370693801</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005134209488363464</v>
+      </c>
+      <c r="C93">
+        <v>-0.1264434536583358</v>
+      </c>
+      <c r="D93">
+        <v>0.3087661312295168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.002994067270969758</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02181074204194639</v>
+      </c>
+      <c r="C94">
+        <v>-0.1568273444474902</v>
+      </c>
+      <c r="D94">
+        <v>-0.03554659677622023</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005597392013502542</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01580944842599926</v>
+      </c>
+      <c r="C95">
+        <v>-0.122157728035254</v>
+      </c>
+      <c r="D95">
+        <v>-0.07083194825950966</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004111109681093466</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03468013006170335</v>
+      </c>
+      <c r="C97">
+        <v>-0.1740356641387979</v>
+      </c>
+      <c r="D97">
+        <v>-0.04379755179461151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006075686039465104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03527935677106588</v>
+      </c>
+      <c r="C98">
+        <v>-0.2581998715649535</v>
+      </c>
+      <c r="D98">
+        <v>-0.04244864098776571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9804924626514061</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9829366292789647</v>
+      </c>
+      <c r="C99">
+        <v>0.1072476920054386</v>
+      </c>
+      <c r="D99">
+        <v>0.03337685304440774</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.00177003318933423</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003228739524396844</v>
+      </c>
+      <c r="C101">
+        <v>-0.04783673798384915</v>
+      </c>
+      <c r="D101">
+        <v>-0.01685735994182457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
